--- a/Indeks Pembangunan Manusia menurut Provinsi/EDITED IPM/IPM.xlsx
+++ b/Indeks Pembangunan Manusia menurut Provinsi/EDITED IPM/IPM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adhit\Downloads\Indeks Pembangunan Manusia menurut Provinsi\EDITED IPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\korelasi_ipm_rpttp100k\Indeks Pembangunan Manusia menurut Provinsi\EDITED IPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ACCBB1B-676F-4BF3-9F8E-42073ED93FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69830FA-C375-4A75-843C-2D888E55ED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="405">
   <si>
     <t>Provinsi</t>
   </si>
@@ -899,9 +899,6 @@
   </si>
   <si>
     <t>67.99</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>73.81</t>
@@ -1243,7 +1240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2098,21 +2095,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -2124,40 +2121,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3137,52 +3134,48 @@
       <c r="K25" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="L25" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>293</v>
-      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>252</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>173</v>
       </c>
       <c r="L26" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3190,7 +3183,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>255</v>
@@ -3202,19 +3195,19 @@
         <v>165</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>98</v>
@@ -3223,7 +3216,7 @@
         <v>65</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3231,40 +3224,40 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>75</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>132</v>
       </c>
       <c r="L28" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3272,40 +3265,40 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>197</v>
       </c>
       <c r="L29" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3313,40 +3306,40 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C30" s="3">
         <v>69</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3354,40 +3347,40 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>248</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3395,10 +3388,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>173</v>
@@ -3410,25 +3403,25 @@
         <v>53</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>198</v>
       </c>
       <c r="K32" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3442,34 +3435,34 @@
         <v>290</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>86</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3480,37 +3473,37 @@
         <v>271</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3518,40 +3511,40 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3559,25 +3552,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>129</v>
@@ -3586,17 +3579,15 @@
         <v>76</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L36" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="M36" s="3" t="s">
-        <v>393</v>
-      </c>
     </row>
-    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
